--- a/Geral/Classes.xlsx
+++ b/Geral/Classes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090E77E-9A59-40A2-A3EB-A2CB77110127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4049825-A3CC-4AC8-ADB0-4B82CD5596F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
     <sheet name="Material + Ano" sheetId="2" r:id="rId2"/>
-    <sheet name="Material + Ano + Estrutura" sheetId="3" r:id="rId3"/>
+    <sheet name="Material + Estrutura" sheetId="4" r:id="rId3"/>
+    <sheet name="Material + Ano + Estrutura" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>Classe</t>
   </si>
@@ -519,7 +520,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,11 +823,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E67E70-D8B2-44C3-99A6-3665CD1F1A67}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>186</v>
+      </c>
+      <c r="E2" s="3">
+        <v>146</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>143</v>
+      </c>
+      <c r="E3" s="3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>198</v>
+      </c>
+      <c r="E4" s="3">
+        <v>153</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1164</v>
+      </c>
+      <c r="E5" s="3">
+        <v>906</v>
+      </c>
+      <c r="F5" s="3">
+        <v>127</v>
+      </c>
+      <c r="G5" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>421</v>
+      </c>
+      <c r="E6" s="3">
+        <v>338</v>
+      </c>
+      <c r="F6" s="3">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4335</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3494</v>
+      </c>
+      <c r="F7" s="3">
+        <v>419</v>
+      </c>
+      <c r="G7" s="3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>6447</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>5157</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUM(F2:F7)</f>
+        <v>644</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUM(G2:G7)</f>
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2665154-B7AB-41C9-9A31-8694EA335804}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Geral/Classes.xlsx
+++ b/Geral/Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4049825-A3CC-4AC8-ADB0-4B82CD5596F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A859377-5DC6-4348-88C6-FF51CFAA23F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{DDF51441-3BE2-4527-9A8E-2C1E9384BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
